--- a/biology/Biologie cellulaire et moléculaire/Cytochrome_f/Cytochrome_f.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Cytochrome_f/Cytochrome_f.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cytochrome f (cyt f) est la plus grosse sous-unité du complexe cytochrome b6f (EC 1.10.9.1), ce dernier étant fonctionnellement et structurellement apparenté au complexe cytochrome bc1 des mitochondries ; le cytochrome f y joue un rôle analogue à celui du cytochrome c1 bien qu'ils aient une structure différente[2].
-La structure tridimensionnelle du cytochrome f du navet (Brassica rapa) a été déterminée[3]. Le segment côté lumen présente deux domaines structurels : un plus petit sur un plus gros lui-même placé sur le segment faisant le lien avec le domaine membranaire. Le domaine le plus gros consiste en un sandwich bêta antiparallèle et un court peptide de liaison à l'hème. Le domaine le plus petit est un feuillet bêta inséré entre les brins bêta F et G du domaine le plus grand. L'hème s'insère entre deux petites hélices et l'extrémité N-terminale du cytochrome f.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cytochrome f (cyt f) est la plus grosse sous-unité du complexe cytochrome b6f (EC 1.10.9.1), ce dernier étant fonctionnellement et structurellement apparenté au complexe cytochrome bc1 des mitochondries ; le cytochrome f y joue un rôle analogue à celui du cytochrome c1 bien qu'ils aient une structure différente.
+La structure tridimensionnelle du cytochrome f du navet (Brassica rapa) a été déterminée. Le segment côté lumen présente deux domaines structurels : un plus petit sur un plus gros lui-même placé sur le segment faisant le lien avec le domaine membranaire. Le domaine le plus gros consiste en un sandwich bêta antiparallèle et un court peptide de liaison à l'hème. Le domaine le plus petit est un feuillet bêta inséré entre les brins bêta F et G du domaine le plus grand. L'hème s'insère entre deux petites hélices et l'extrémité N-terminale du cytochrome f.
 Au sein de la deuxième hélice, la séquence Cys–Xaa–Xaa–Cys–His (résidus 21 à 25) contient les acides aminés liés par covalence à l'hème par liaison thioester avec la cystéine-21 et la cystéine-24. L'histidine-25 est le 5e ligand du cation de fer de l'hème, le 6e ligand étant le groupe amine de la tyrosine-1 de la première hélice.
 Le cytochrome f contient un réseau interne de molécules d'eau qui pourraient jouer le rôle de canal à protons ; cette structure semble être conservée dans les différents cytochromes f étudiés.
 </t>
